--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grem1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Grem1-Kdr.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N2">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q2">
-        <v>1.824406957117778</v>
+        <v>2.630208845091111</v>
       </c>
       <c r="R2">
-        <v>16.41966261406</v>
+        <v>23.67187960582</v>
       </c>
       <c r="S2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="T2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q3">
         <v>0.006173549637777779</v>
@@ -635,10 +635,10 @@
         <v>0.05556194674000001</v>
       </c>
       <c r="S3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="T3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N4">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q4">
-        <v>0.01073194398666667</v>
+        <v>0.01954274562</v>
       </c>
       <c r="R4">
-        <v>0.09658749588</v>
+        <v>0.17588471058</v>
       </c>
       <c r="S4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="T4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N5">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q5">
-        <v>0.06819097433333335</v>
+        <v>0.02429015733111111</v>
       </c>
       <c r="R5">
-        <v>0.6137187690000001</v>
+        <v>0.21861141598</v>
       </c>
       <c r="S5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="T5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
     </row>
   </sheetData>
